--- a/spliced/walkingToRunning/2023-03-30_14-22-08/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-22-08/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1120047569274902</v>
+        <v>-7.487135410308838</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.523766279220581</v>
+        <v>2.468842267990112</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.589697360992432</v>
+        <v>-10.7623405456543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1642012596130371</v>
+        <v>5.30696439743042</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.677549123764038</v>
+        <v>-7.900328636169434</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.916802883148193</v>
+        <v>-8.124782562255859</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.91043758392334</v>
+        <v>0.1120047569274902</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.157215595245361</v>
+        <v>-3.523766279220581</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.494926452636719</v>
+        <v>-6.589697360992432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.463288307189941</v>
+        <v>-0.1642012596130371</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.138980388641357</v>
+        <v>-2.677549123764038</v>
       </c>
       <c r="C5" t="n">
-        <v>-15.2139720916748</v>
+        <v>-5.916802883148193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.665878295898437</v>
+        <v>2.91043758392334</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.94788122177124</v>
+        <v>-5.157215595245361</v>
       </c>
       <c r="C6" t="n">
-        <v>-14.101637840271</v>
+        <v>-1.494926452636719</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.109983444213867</v>
+        <v>-4.463288307189941</v>
       </c>
       <c r="B7" t="n">
-        <v>-22.90362548828125</v>
+        <v>-6.138980388641357</v>
       </c>
       <c r="C7" t="n">
-        <v>-9.720759391784668</v>
+        <v>-15.2139720916748</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-23.78427696228028</v>
+        <v>-2.665878295898437</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.573103904724121</v>
+        <v>-4.94788122177124</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.555922031402588</v>
+        <v>-14.101637840271</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.0823409557342529</v>
+        <v>2.109983444213867</v>
       </c>
       <c r="B9" t="n">
-        <v>6.524863243103027</v>
+        <v>-22.90362548828125</v>
       </c>
       <c r="C9" t="n">
-        <v>0.961866855621338</v>
+        <v>-9.720759391784668</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.332920551300049</v>
+        <v>-23.78427696228028</v>
       </c>
       <c r="B10" t="n">
-        <v>-42.73205184936523</v>
+        <v>-3.573103904724121</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.979649543762207</v>
+        <v>-5.555922031402588</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.95712423324585</v>
+        <v>-0.0823409557342529</v>
       </c>
       <c r="B11" t="n">
-        <v>9.703181266784668</v>
+        <v>6.524863243103027</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.591499328613279</v>
+        <v>0.961866855621338</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-12.04059410095215</v>
+        <v>-3.332920551300049</v>
       </c>
       <c r="B12" t="n">
-        <v>-11.62393760681152</v>
+        <v>-42.73205184936523</v>
       </c>
       <c r="C12" t="n">
-        <v>-15.216552734375</v>
+        <v>-5.979649543762207</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-30.35504722595215</v>
+        <v>7.95712423324585</v>
       </c>
       <c r="B13" t="n">
-        <v>-42.07619094848633</v>
+        <v>9.703181266784668</v>
       </c>
       <c r="C13" t="n">
-        <v>14.66377067565918</v>
+        <v>-9.591499328613279</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.246713161468506</v>
+        <v>-12.04059410095215</v>
       </c>
       <c r="B14" t="n">
-        <v>3.201902866363525</v>
+        <v>-11.62393760681152</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.634400367736816</v>
+        <v>-15.216552734375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15.14187526702881</v>
+        <v>-30.35504722595215</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.368836879730225</v>
+        <v>-42.07619094848633</v>
       </c>
       <c r="C15" t="n">
-        <v>2.886821746826172</v>
+        <v>14.66377067565918</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-66.83038330078125</v>
+        <v>4.246713161468506</v>
       </c>
       <c r="B16" t="n">
-        <v>-23.19043350219727</v>
+        <v>3.201902866363525</v>
       </c>
       <c r="C16" t="n">
-        <v>-35.43113708496094</v>
+        <v>-3.634400367736816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>21.56573677062988</v>
+        <v>15.14187526702881</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.212137758731842</v>
+        <v>-2.368836879730225</v>
       </c>
       <c r="C17" t="n">
-        <v>-20.44221496582031</v>
+        <v>2.886821746826172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43.28559112548828</v>
+        <v>-66.83038330078125</v>
       </c>
       <c r="B18" t="n">
-        <v>-13.05164337158203</v>
+        <v>-23.19043350219727</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.05863285064697</v>
+        <v>-35.43113708496094</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30.09039688110352</v>
+        <v>21.56573677062988</v>
       </c>
       <c r="B19" t="n">
-        <v>-34.86870574951172</v>
+        <v>-0.212137758731842</v>
       </c>
       <c r="C19" t="n">
-        <v>6.082807540893555</v>
+        <v>-20.44221496582031</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-2.691319465637207</v>
+        <v>43.28559112548828</v>
       </c>
       <c r="B20" t="n">
-        <v>10.76634311676025</v>
+        <v>-13.05164337158203</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.473065376281738</v>
+        <v>-13.05863285064697</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>30.09039688110352</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-34.86870574951172</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.082807540893555</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-2.691319465637207</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10.76634311676025</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-5.473065376281738</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>11.3234281539917</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>-40.29625701904297</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>38.12360763549805</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-7.852145671844482</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.264562606811523</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-14.15214920043945</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-4.107211589813232</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.712513208389282</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-20.56048202514648</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-8.579601287841797</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-15.95286655426025</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-10.86754608154297</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.7219026684761047</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.51579213142395</v>
+      </c>
+      <c r="C27" t="n">
+        <v>17.58181953430176</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-6.065989017486572</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16.71288681030273</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.314104557037354</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-11.12415027618408</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-78.97219848632812</v>
+      </c>
+      <c r="C29" t="n">
+        <v>36.16990280151367</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.5275765657424927</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10.35773277282715</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-23.80691909790039</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-18.0826530456543</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.298346519470215</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-14.97142791748047</v>
       </c>
     </row>
   </sheetData>
